--- a/Resource/excel/玩家-成就系统.xlsx
+++ b/Resource/excel/玩家-成就系统.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26310" windowHeight="13140"/>
+    <workbookView windowWidth="26340" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="achieve" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>#achieve</t>
   </si>
@@ -75,16 +75,19 @@
   <si>
     <t>Reward(json)</t>
   </si>
+  <si>
+    <t>[{"money":100}]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -107,6 +110,66 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -115,6 +178,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -124,7 +211,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,114 +247,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,7 +265,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -301,25 +304,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,157 +478,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,9 +522,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,17 +561,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,19 +603,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,23 +612,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,10 +623,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -638,133 +635,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1107,17 +1104,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
     <col min="2" max="2" width="20.625" customWidth="1"/>
@@ -1174,6 +1171,17 @@
       </c>
       <c r="E4" s="6"/>
     </row>
+    <row r="5" spans="2:4">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Resource/excel/玩家-成就系统.xlsx
+++ b/Resource/excel/玩家-成就系统.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26340" windowHeight="13140"/>
+    <workbookView windowWidth="16200" windowHeight="23430"/>
   </bookViews>
   <sheets>
     <sheet name="achieve" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
     <t>Reward(json)</t>
   </si>
   <si>
-    <t>[{"money":100}]</t>
+    <t>[{"money":"100"}]</t>
   </si>
 </sst>
 </file>
@@ -84,10 +84,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -118,45 +118,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,6 +147,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -186,9 +208,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,38 +223,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,8 +246,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,55 +304,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,121 +478,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,41 +522,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,11 +568,43 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,10 +623,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -635,133 +635,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1111,7 +1111,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="4"/>

--- a/Resource/excel/玩家-成就系统.xlsx
+++ b/Resource/excel/玩家-成就系统.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16200" windowHeight="23430"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="achieve" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>#achieve</t>
   </si>
@@ -78,6 +78,9 @@
   <si>
     <t>[{"money":"100"}]</t>
   </si>
+  <si>
+    <t>累计获取10积分</t>
+  </si>
 </sst>
 </file>
 
@@ -86,8 +89,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -111,6 +114,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -118,22 +128,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,8 +149,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,6 +164,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
@@ -170,46 +189,46 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,7 +243,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,23 +251,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,91 +307,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,85 +469,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,11 +523,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,30 +573,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,6 +594,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -593,175 +620,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1104,17 +1107,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
     <col min="2" max="2" width="20.625" customWidth="1"/>
@@ -1122,13 +1125,13 @@
     <col min="4" max="4" width="29.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:2">
+    <row r="1" s="1" customFormat="1" spans="1:2">
       <c r="A1" s="5"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="13.5" spans="1:4">
+    <row r="2" s="2" customFormat="1" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1142,7 +1145,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" ht="13.5" spans="1:4">
+    <row r="3" s="3" customFormat="1" spans="1:4">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -1156,7 +1159,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" s="4" customFormat="1" ht="13.5" spans="1:5">
+    <row r="4" s="4" customFormat="1" spans="1:5">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -1180,6 +1183,17 @@
       </c>
       <c r="D5" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Resource/excel/玩家-成就系统.xlsx
+++ b/Resource/excel/玩家-成就系统.xlsx
@@ -81,13 +81,15 @@
     <t>Reward(json)</t>
   </si>
   <si>
-    <t>[{"money":"100"}]</t>
-  </si>
-  <si>
     <t>累计获取10积分</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>[{"item":{"id":"11002"}}]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"hero":{"id":"2"}}]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -512,7 +514,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -580,12 +582,12 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -594,7 +596,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Resource/excel/玩家-成就系统.xlsx
+++ b/Resource/excel/玩家-成就系统.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\FighterServer\Resource\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12090"/>
   </bookViews>
   <sheets>
     <sheet name="achieve" sheetId="1" r:id="rId1"/>
@@ -24,7 +19,7 @@
     <author>PCC</author>
   </authors>
   <commentList>
-    <comment ref="B4" authorId="0" shapeId="0">
+    <comment ref="B4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -81,23 +76,26 @@
     <t>Reward(json)</t>
   </si>
   <si>
+    <t>[{"hero":{"id":"2"}}]</t>
+  </si>
+  <si>
     <t>累计获取10积分</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>[{"item":{"id":"11002"}}]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"hero":{"id":"2"}}]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,6 +114,150 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -128,14 +270,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -144,7 +280,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79995117038483843"/>
+        <fgColor theme="3" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -172,8 +308,188 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -209,9 +525,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -234,17 +792,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -502,22 +1104,23 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
     <col min="2" max="2" width="20.625" customWidth="1"/>
@@ -525,13 +1128,13 @@
     <col min="4" max="4" width="29.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="1" s="1" customFormat="1" spans="1:2">
       <c r="A1" s="5"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="2" s="2" customFormat="1" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -545,7 +1148,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="3" s="3" customFormat="1" spans="1:4">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -559,7 +1162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="4" s="4" customFormat="1" spans="1:5">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -574,7 +1177,7 @@
       </c>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:4">
       <c r="B5">
         <v>1</v>
       </c>
@@ -582,12 +1185,12 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -596,13 +1199,13 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Resource/excel/玩家-成就系统.xlsx
+++ b/Resource/excel/玩家-成就系统.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12090"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="achieve" sheetId="1" r:id="rId1"/>
@@ -90,10 +90,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -117,13 +117,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -153,53 +152,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,7 +208,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,7 +223,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,6 +240,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,181 +310,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,13 +526,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,30 +565,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -609,6 +589,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -629,10 +629,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -641,133 +641,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1117,7 +1117,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>

--- a/Resource/excel/玩家-成就系统.xlsx
+++ b/Resource/excel/玩家-成就系统.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>#achieve</t>
   </si>
@@ -76,13 +76,25 @@
     <t>Reward(json)</t>
   </si>
   <si>
+    <t>累计消耗100金币</t>
+  </si>
+  <si>
     <t>[{"hero":{"id":"2"}}]</t>
   </si>
   <si>
-    <t>累计获取10积分</t>
-  </si>
-  <si>
-    <t>[{"item":{"id":"11002"}}]</t>
+    <t>首次获取积分</t>
+  </si>
+  <si>
+    <t>[{"item":{"id":"12002"}}]</t>
+  </si>
+  <si>
+    <t>段位星级升级</t>
+  </si>
+  <si>
+    <t>[{"foot":{"id":"2"}}]</t>
+  </si>
+  <si>
+    <t>[{"effect":{"id":"2"}}]</t>
   </si>
 </sst>
 </file>
@@ -90,9 +102,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -117,16 +129,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -138,6 +159,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -145,6 +189,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -154,14 +220,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,9 +241,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,76 +258,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,7 +283,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -304,187 +316,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,26 +544,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,21 +583,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -589,13 +592,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,16 +630,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -641,137 +659,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -785,7 +803,8 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1110,17 +1129,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
     <col min="2" max="2" width="20.625" customWidth="1"/>
@@ -1129,7 +1148,7 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:2">
-      <c r="A1" s="5"/>
+      <c r="A1" s="6"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1175,9 +1194,12 @@
       <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="6"/>
+      <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
       <c r="B5">
         <v>1</v>
       </c>
@@ -1185,21 +1207,49 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" s="5" customFormat="1" spans="1:4">
+      <c r="A6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="5">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Resource/excel/玩家-成就系统.xlsx
+++ b/Resource/excel/玩家-成就系统.xlsx
@@ -17,6 +17,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>PCC</author>
+    <author>Administrator</author>
   </authors>
   <commentList>
     <comment ref="B4" authorId="0">
@@ -42,12 +43,38 @@
         </r>
       </text>
     </comment>
+    <comment ref="D4" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+[{"hero":{"id":"2"}}]
+[{"item":{"id":"12002"}}]
+[{"foot":{"id":"2"}}]
+[{"effect":{"id":"2"}}]
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>#achieve</t>
   </si>
@@ -76,25 +103,28 @@
     <t>Reward(json)</t>
   </si>
   <si>
-    <t>累计消耗100金币</t>
+    <t>累计4次在线</t>
   </si>
   <si>
     <t>[{"hero":{"id":"2"}}]</t>
   </si>
   <si>
-    <t>首次获取积分</t>
-  </si>
-  <si>
-    <t>[{"item":{"id":"12002"}}]</t>
-  </si>
-  <si>
-    <t>段位星级升级</t>
-  </si>
-  <si>
-    <t>[{"foot":{"id":"2"}}]</t>
-  </si>
-  <si>
-    <t>[{"effect":{"id":"2"}}]</t>
+    <t>星级升级</t>
+  </si>
+  <si>
+    <t>[{"item":{"id":"11001"}}]</t>
+  </si>
+  <si>
+    <t>段位升级</t>
+  </si>
+  <si>
+    <t>[{"item":{"id":"10001"}}]</t>
+  </si>
+  <si>
+    <t>累计消耗2000金币</t>
+  </si>
+  <si>
+    <t>[{"item":{"id":"12001"}}]</t>
   </si>
 </sst>
 </file>
@@ -129,7 +159,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,8 +211,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -168,105 +257,46 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,7 +313,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -316,18 +346,132 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -346,13 +490,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,139 +526,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,17 +577,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,23 +610,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,8 +619,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -631,6 +640,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -647,10 +671,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -659,137 +683,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -803,8 +827,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1136,7 +1159,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
@@ -1148,7 +1171,7 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:2">
-      <c r="A1" s="6"/>
+      <c r="A1" s="5"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1194,9 +1217,9 @@
       <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" customFormat="1" spans="1:4">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1204,27 +1227,27 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" s="5" customFormat="1" spans="1:4">
-      <c r="A6" s="5" t="s">
+    <row r="6" customFormat="1" spans="1:4">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6">
         <v>2</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" customFormat="1" spans="1:4">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1234,13 +1257,13 @@
       <c r="C7">
         <v>3</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" customFormat="1" spans="1:4">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -1248,8 +1271,8 @@
       <c r="C8">
         <v>4</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>15</v>
+      <c r="D8" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Resource/excel/玩家-成就系统.xlsx
+++ b/Resource/excel/玩家-成就系统.xlsx
@@ -103,7 +103,7 @@
     <t>Reward(json)</t>
   </si>
   <si>
-    <t>累计4次在线</t>
+    <t>累计在线4天</t>
   </si>
   <si>
     <t>[{"hero":{"id":"2"}}]</t>
@@ -159,29 +159,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,38 +226,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,69 +272,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,181 +352,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,17 +577,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,11 +601,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -619,23 +619,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -665,16 +650,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -683,133 +683,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1159,7 +1159,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
